--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6BE548E3-BE72-4D4A-83EE-85AF1EA34FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F7FDDF37-CF9B-40E5-B398-D5ED165BB66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1A986C05-0B72-426D-9F39-7384AE6F9258}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{1A986C05-0B72-426D-9F39-7384AE6F9258}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
     <sheet name="RegistrationData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q4"/>
+  <oleSize ref="A1:Q14"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -52,31 +52,12 @@
   </si>
   <si>
     <t>admin123</t>
-  </si>
-  <si>
-    <t>Nikita</t>
-  </si>
-  <si>
-    <t>Shinde</t>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18CED5E-51A6-4659-A237-D2AF02EA288F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -489,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB9BD7D-9FD2-4951-AB06-7EFF7447A9EB}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
@@ -515,26 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
